--- a/Code/Results/Cases/Case_3_158/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_158/res_line/pl_mw.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8237436001826097</v>
+        <v>0.4102649736025512</v>
       </c>
       <c r="C2">
-        <v>0.09622590318284097</v>
+        <v>0.02526368240225452</v>
       </c>
       <c r="D2">
-        <v>0.1020329557210573</v>
+        <v>0.1473980694405128</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.645659148912358</v>
+        <v>2.375462492894926</v>
       </c>
       <c r="G2">
-        <v>1.281294390249599</v>
+        <v>1.618661216422367</v>
       </c>
       <c r="H2">
-        <v>0.8441976228352104</v>
+        <v>1.43705566309589</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2083381738448224</v>
+        <v>0.3030830918251937</v>
       </c>
       <c r="K2">
-        <v>0.8258856662407084</v>
+        <v>0.3579458810648646</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.3541601572530695</v>
+        <v>0.2827484808362399</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7136002962609496</v>
+        <v>0.3816829560378494</v>
       </c>
       <c r="C3">
-        <v>0.08471594842410468</v>
+        <v>0.02200878064165579</v>
       </c>
       <c r="D3">
-        <v>0.09040439120619226</v>
+        <v>0.1453318080491997</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.564184266443917</v>
+        <v>2.364444478439552</v>
       </c>
       <c r="G3">
-        <v>1.216677897361194</v>
+        <v>1.60792927278311</v>
       </c>
       <c r="H3">
-        <v>0.821612238259263</v>
+        <v>1.436782924629753</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1930593641043572</v>
+        <v>0.3007778073024667</v>
       </c>
       <c r="K3">
-        <v>0.7149518014717984</v>
+        <v>0.3286680263785513</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.309550540387896</v>
+        <v>0.2725404947246446</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.646527068585641</v>
+        <v>0.3643496199270828</v>
       </c>
       <c r="C4">
-        <v>0.07766934560518735</v>
+        <v>0.02000954457744797</v>
       </c>
       <c r="D4">
-        <v>0.08335009086902545</v>
+        <v>0.1441338740876859</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.516538223956559</v>
+        <v>2.358697697626155</v>
       </c>
       <c r="G4">
-        <v>1.178986596915919</v>
+        <v>1.602082765033174</v>
       </c>
       <c r="H4">
-        <v>0.8088617538662817</v>
+        <v>1.437133324880705</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1839712445814214</v>
+        <v>0.2995021032281926</v>
       </c>
       <c r="K4">
-        <v>0.6473187468297681</v>
+        <v>0.310864166507173</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.2824925115158052</v>
+        <v>0.266433608451571</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6193141021199438</v>
+        <v>0.3573406855751102</v>
       </c>
       <c r="C5">
-        <v>0.07480096145469872</v>
+        <v>0.0191946685217701</v>
       </c>
       <c r="D5">
-        <v>0.08049511573815238</v>
+        <v>0.1436635653076621</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.497684592934704</v>
+        <v>2.356611825610514</v>
       </c>
       <c r="G5">
-        <v>1.164094387992634</v>
+        <v>1.599886860087651</v>
       </c>
       <c r="H5">
-        <v>0.8039324362571705</v>
+        <v>1.437406344754336</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1803364415555464</v>
+        <v>0.2990173876032145</v>
       </c>
       <c r="K5">
-        <v>0.6198589972295849</v>
+        <v>0.3036525882776147</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2715407591225585</v>
+        <v>0.26398553142959</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6148021002243809</v>
+        <v>0.3561801572173238</v>
       </c>
       <c r="C6">
-        <v>0.07432480353358528</v>
+        <v>0.01905934889388305</v>
       </c>
       <c r="D6">
-        <v>0.08002218817559026</v>
+        <v>0.1435865514917651</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.494586926925265</v>
+        <v>2.356280926964246</v>
       </c>
       <c r="G6">
-        <v>1.161648887621865</v>
+        <v>1.599533495002802</v>
       </c>
       <c r="H6">
-        <v>0.8031296280948084</v>
+        <v>1.437459545270514</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1797368919910838</v>
+        <v>0.2989390236632019</v>
       </c>
       <c r="K6">
-        <v>0.6153048930481049</v>
+        <v>0.3024577520677383</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2697264833689275</v>
+        <v>0.2635814803199921</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.646159604593322</v>
+        <v>0.3642548738974938</v>
       </c>
       <c r="C7">
-        <v>0.07763065131432256</v>
+        <v>0.01999855555636998</v>
       </c>
       <c r="D7">
-        <v>0.08331151021747019</v>
+        <v>0.1441274589403108</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.516281725592563</v>
+        <v>2.358668530452647</v>
       </c>
       <c r="G7">
-        <v>1.178783903503515</v>
+        <v>1.602052395082652</v>
       </c>
       <c r="H7">
-        <v>0.808794214121761</v>
+        <v>1.43713647962592</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1839219527052194</v>
+        <v>0.2994954238818863</v>
       </c>
       <c r="K7">
-        <v>0.6469480300457207</v>
+        <v>0.3107667317169245</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.2823445217150891</v>
+        <v>0.2664004286225321</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7856386836153888</v>
+        <v>0.4003651384044247</v>
       </c>
       <c r="C8">
-        <v>0.0922517505884457</v>
+        <v>0.02414154410301705</v>
       </c>
       <c r="D8">
-        <v>0.09800449780405529</v>
+        <v>0.1466709750080213</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.617050347373137</v>
+        <v>2.371452072418577</v>
       </c>
       <c r="G8">
-        <v>1.25858339959882</v>
+        <v>1.61480650039708</v>
       </c>
       <c r="H8">
-        <v>0.8361694676722351</v>
+        <v>1.436854142321636</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2030060727211449</v>
+        <v>0.302259224828255</v>
       </c>
       <c r="K8">
-        <v>0.7875236427342429</v>
+        <v>0.3478150917064227</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3387041640003616</v>
+        <v>0.2791954244537038</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.064528105522498</v>
+        <v>0.472888029243336</v>
       </c>
       <c r="C9">
-        <v>0.1211859232837611</v>
+        <v>0.03226034136577027</v>
       </c>
       <c r="D9">
-        <v>0.1275875442558458</v>
+        <v>0.1522177781520355</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.835285254414117</v>
+        <v>2.404607922073282</v>
       </c>
       <c r="G9">
-        <v>1.43233568249201</v>
+        <v>1.645725431378168</v>
       </c>
       <c r="H9">
-        <v>0.8994088217021954</v>
+        <v>1.440410484474569</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2430007336504758</v>
+        <v>0.3087884073307663</v>
       </c>
       <c r="K9">
-        <v>1.067971108922023</v>
+        <v>0.4218350532956663</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.4523030813717881</v>
+        <v>0.3055609333787928</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.274170855664806</v>
+        <v>0.5272141274471664</v>
       </c>
       <c r="C10">
-        <v>0.1427557166843769</v>
+        <v>0.03822254126578173</v>
       </c>
       <c r="D10">
-        <v>0.1499289751972412</v>
+        <v>0.1566311206896955</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2.010827785126764</v>
+        <v>2.433913679890253</v>
       </c>
       <c r="G10">
-        <v>1.572819269308866</v>
+        <v>1.672065957359052</v>
       </c>
       <c r="H10">
-        <v>0.9527419616383952</v>
+        <v>1.44553224980254</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2743218023687177</v>
+        <v>0.3142633751057673</v>
       </c>
       <c r="K10">
-        <v>1.278397138393302</v>
+        <v>0.4770533846963758</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.5383080964589482</v>
+        <v>0.3257088288023553</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.37093178010528</v>
+        <v>0.5521556343040288</v>
       </c>
       <c r="C11">
-        <v>0.1526737302239241</v>
+        <v>0.04093452053051294</v>
       </c>
       <c r="D11">
-        <v>0.1602578993404364</v>
+        <v>0.1587117670350153</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>2.094630428977311</v>
+        <v>2.448323435046689</v>
       </c>
       <c r="G11">
-        <v>1.640076742067095</v>
+        <v>1.684841084361551</v>
       </c>
       <c r="H11">
-        <v>0.9787521793661824</v>
+        <v>1.448407930788278</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2890814738749583</v>
+        <v>0.316901721726893</v>
       </c>
       <c r="K11">
-        <v>1.375436603486776</v>
+        <v>0.5023559490537934</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.5781496269718218</v>
+        <v>0.3350435942674466</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.407805573712125</v>
+        <v>0.5616330757389107</v>
       </c>
       <c r="C12">
-        <v>0.1564480913413888</v>
+        <v>0.04196144324676254</v>
       </c>
       <c r="D12">
-        <v>0.1641960372096349</v>
+        <v>0.1595100950444106</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>2.126990634543361</v>
+        <v>2.453935308478293</v>
       </c>
       <c r="G12">
-        <v>1.666078713330563</v>
+        <v>1.689793008147888</v>
       </c>
       <c r="H12">
-        <v>0.9888764584457022</v>
+        <v>1.449575393423544</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.294752376648205</v>
+        <v>0.3179220584212317</v>
       </c>
       <c r="K12">
-        <v>1.412404813070395</v>
+        <v>0.5119636889750723</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.5933545682219759</v>
+        <v>0.3386027494915425</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.399853257030827</v>
+        <v>0.5595904908025773</v>
       </c>
       <c r="C13">
-        <v>0.1556343288727646</v>
+        <v>0.04174027919262357</v>
       </c>
       <c r="D13">
-        <v>0.1633466467725384</v>
+        <v>0.1593376978561025</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>2.119992459933954</v>
+        <v>2.452719785848828</v>
       </c>
       <c r="G13">
-        <v>1.660454151881623</v>
+        <v>1.688721436652202</v>
       </c>
       <c r="H13">
-        <v>0.9866833989827626</v>
+        <v>1.449320467542208</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2935272729545773</v>
+        <v>0.3177013653840248</v>
       </c>
       <c r="K13">
-        <v>1.404432651581146</v>
+        <v>0.5098933274186948</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.5900744244283089</v>
+        <v>0.3378351429670019</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.373960554355961</v>
+        <v>0.5529346961805857</v>
       </c>
       <c r="C14">
-        <v>0.1529838551799116</v>
+        <v>0.04101900702697492</v>
       </c>
       <c r="D14">
-        <v>0.1605813372814566</v>
+        <v>0.1587772372450758</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>2.097279824411558</v>
+        <v>2.44878201578895</v>
       </c>
       <c r="G14">
-        <v>1.642204947405816</v>
+        <v>1.685246190600765</v>
       </c>
       <c r="H14">
-        <v>0.9795794618628406</v>
+        <v>1.448502405149242</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2895463348980201</v>
+        <v>0.3169852394883179</v>
       </c>
       <c r="K14">
-        <v>1.378473366167327</v>
+        <v>0.5031458593419131</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.5793980966984051</v>
+        <v>0.3353359218875482</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.358131813134719</v>
+        <v>0.5488620740034094</v>
       </c>
       <c r="C15">
-        <v>0.1513628959466615</v>
+        <v>0.04057720090705175</v>
       </c>
       <c r="D15">
-        <v>0.1588910879490442</v>
+        <v>0.1584352956503778</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>2.083451019105951</v>
+        <v>2.446390235163065</v>
       </c>
       <c r="G15">
-        <v>1.631097797079207</v>
+        <v>1.683132390222625</v>
       </c>
       <c r="H15">
-        <v>0.9752646072170705</v>
+        <v>1.448011542673498</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2871187949485403</v>
+        <v>0.316549359499831</v>
       </c>
       <c r="K15">
-        <v>1.362602405233218</v>
+        <v>0.4990162482361598</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.5728743386779769</v>
+        <v>0.3338082368445043</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.267878024336142</v>
+        <v>0.5255887184863752</v>
       </c>
       <c r="C16">
-        <v>0.1421099641911496</v>
+        <v>0.03804530118583216</v>
       </c>
       <c r="D16">
-        <v>0.1492575381266761</v>
+        <v>0.156496608900909</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>2.005435385913557</v>
+        <v>2.432993680700747</v>
       </c>
       <c r="G16">
-        <v>1.568495533049997</v>
+        <v>1.671247047013566</v>
       </c>
       <c r="H16">
-        <v>0.9510792662751157</v>
+        <v>1.445355301528735</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2733681992050805</v>
+        <v>0.3140939265966409</v>
       </c>
       <c r="K16">
-        <v>1.272084547906218</v>
+        <v>0.4754034794639495</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.5357200179988482</v>
+        <v>0.3251021819405366</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.21288911912356</v>
+        <v>0.5113696008417605</v>
       </c>
       <c r="C17">
-        <v>0.136463012592472</v>
+        <v>0.03649199127806924</v>
       </c>
       <c r="D17">
-        <v>0.1433921404725282</v>
+        <v>0.1553259372347497</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.958626245914971</v>
+        <v>2.425051634311671</v>
       </c>
       <c r="G17">
-        <v>1.530984283427244</v>
+        <v>1.66415899476354</v>
       </c>
       <c r="H17">
-        <v>0.9367061632651996</v>
+        <v>1.443865584086069</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2650692665408343</v>
+        <v>0.3126254453676296</v>
       </c>
       <c r="K17">
-        <v>1.216913794341536</v>
+        <v>0.4609646760459611</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.5131208137131722</v>
+        <v>0.3198046291675212</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.181390017734486</v>
+        <v>0.5032126398278649</v>
       </c>
       <c r="C18">
-        <v>0.1332247713284005</v>
+        <v>0.03559854492775116</v>
       </c>
       <c r="D18">
-        <v>0.1400339223017539</v>
+        <v>0.1546594722599224</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.932070634088888</v>
+        <v>2.420585076940043</v>
       </c>
       <c r="G18">
-        <v>1.509720871505436</v>
+        <v>1.660156729967866</v>
       </c>
       <c r="H18">
-        <v>0.9286022160738696</v>
+        <v>1.443060106399372</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2603435597129078</v>
+        <v>0.3117947210165397</v>
       </c>
       <c r="K18">
-        <v>1.185302767287965</v>
+        <v>0.4526771373652139</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.5001889239893842</v>
+        <v>0.3167735648499814</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.170746196182535</v>
+        <v>0.5004545314816937</v>
       </c>
       <c r="C19">
-        <v>0.132129932100213</v>
+        <v>0.03529603555543304</v>
       </c>
       <c r="D19">
-        <v>0.138899446474781</v>
+        <v>0.1544350013205928</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.923140831306625</v>
+        <v>2.419090205543071</v>
       </c>
       <c r="G19">
-        <v>1.502573557634292</v>
+        <v>1.658814435404793</v>
       </c>
       <c r="H19">
-        <v>0.9258856917237495</v>
+        <v>1.442796207340109</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2587514579974339</v>
+        <v>0.3115158404573179</v>
       </c>
       <c r="K19">
-        <v>1.174619787648822</v>
+        <v>0.4498740922518891</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.4958214172086244</v>
+        <v>0.3157500399436088</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.218729200626569</v>
+        <v>0.5128810265007644</v>
       </c>
       <c r="C20">
-        <v>0.1370631089548056</v>
+        <v>0.03665734627099937</v>
       </c>
       <c r="D20">
-        <v>0.1440149071583505</v>
+        <v>0.1554498462239025</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.963570690282907</v>
+        <v>2.425886573088164</v>
       </c>
       <c r="G20">
-        <v>1.534944766059311</v>
+        <v>1.66490580770315</v>
       </c>
       <c r="H20">
-        <v>0.9382191641046802</v>
+        <v>1.444018850434986</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2659477167324553</v>
+        <v>0.3127803283228445</v>
       </c>
       <c r="K20">
-        <v>1.222773991966449</v>
+        <v>0.462499924267405</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.515519545349207</v>
+        <v>0.3203669127052464</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.381559287062089</v>
+        <v>0.5548887802515878</v>
       </c>
       <c r="C21">
-        <v>0.1537618292257292</v>
+        <v>0.04123086342949023</v>
       </c>
       <c r="D21">
-        <v>0.1613928234300772</v>
+        <v>0.1589415754883561</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>2.103933596472288</v>
+        <v>2.449934420809328</v>
       </c>
       <c r="G21">
-        <v>1.647550283790594</v>
+        <v>1.686263851438667</v>
       </c>
       <c r="H21">
-        <v>0.981658406687643</v>
+        <v>1.448740559111599</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2907133458022031</v>
+        <v>0.3171950062064894</v>
       </c>
       <c r="K21">
-        <v>1.386091954765476</v>
+        <v>0.5051270443765077</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.5825306719861061</v>
+        <v>0.3360693452859067</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.489350621785633</v>
+        <v>0.5825334041534802</v>
       </c>
       <c r="C22">
-        <v>0.1647858002365012</v>
+        <v>0.04421965567239283</v>
       </c>
       <c r="D22">
-        <v>0.1729080694932748</v>
+        <v>0.1612844010359566</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.199348442370763</v>
+        <v>2.466555837159746</v>
       </c>
       <c r="G22">
-        <v>1.724278596207654</v>
+        <v>1.700888691562028</v>
       </c>
       <c r="H22">
-        <v>1.011662458384421</v>
+        <v>1.45228406579858</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.3073798745102181</v>
+        <v>0.3202041293649387</v>
       </c>
       <c r="K22">
-        <v>1.494137772577062</v>
+        <v>0.5331390127536224</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.6270208374305497</v>
+        <v>0.3464732934143981</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.431683371517806</v>
+        <v>0.5677616147116282</v>
       </c>
       <c r="C23">
-        <v>0.1588907816233842</v>
+        <v>0.04262450789985905</v>
       </c>
       <c r="D23">
-        <v>0.1667466785582263</v>
+        <v>0.1600284507457843</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2.148066382925805</v>
+        <v>2.457601843697404</v>
       </c>
       <c r="G23">
-        <v>1.683022324112414</v>
+        <v>1.693022098688857</v>
       </c>
       <c r="H23">
-        <v>0.9954927782428911</v>
+        <v>1.450350951162307</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2984377470141482</v>
+        <v>0.318586767333386</v>
       </c>
       <c r="K23">
-        <v>1.43634053343709</v>
+        <v>0.5181745845496266</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.6032068537198683</v>
+        <v>0.3409075877874415</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.216088544745787</v>
+        <v>0.5121976555058154</v>
       </c>
       <c r="C24">
-        <v>0.1367917798948213</v>
+        <v>0.03658259061158731</v>
       </c>
       <c r="D24">
-        <v>0.1437333113371295</v>
+        <v>0.1553938065016069</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.961334203757232</v>
+        <v>2.425508787544899</v>
       </c>
       <c r="G24">
-        <v>1.533153294061378</v>
+        <v>1.664567946971147</v>
       </c>
       <c r="H24">
-        <v>0.9375346418493962</v>
+        <v>1.443949399907325</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2655504284115437</v>
+        <v>0.31271026361064</v>
       </c>
       <c r="K24">
-        <v>1.220124264578118</v>
+        <v>0.4618057964170248</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.5144348908203042</v>
+        <v>0.3201126589315777</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9883616441663321</v>
+        <v>0.4530854653875167</v>
       </c>
       <c r="C25">
-        <v>0.1133155081318193</v>
+        <v>0.03006451680515454</v>
       </c>
       <c r="D25">
-        <v>0.1194885743681198</v>
+        <v>0.150657655971898</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.773779701426434</v>
+        <v>2.39477094039853</v>
       </c>
       <c r="G25">
-        <v>1.383256145165262</v>
+        <v>1.636726194244034</v>
       </c>
       <c r="H25">
-        <v>0.8811749927338042</v>
+        <v>1.439008051941727</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2318695037780145</v>
+        <v>0.306903152509868</v>
       </c>
       <c r="K25">
-        <v>0.9914467191159986</v>
+        <v>0.4016640447816542</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.42117637630448</v>
+        <v>0.2982919034740235</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_158/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_158/res_line/pl_mw.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.4102649736025512</v>
+        <v>0.8237436001826381</v>
       </c>
       <c r="C2">
-        <v>0.02526368240225452</v>
+        <v>0.09622590318257096</v>
       </c>
       <c r="D2">
-        <v>0.1473980694405128</v>
+        <v>0.1020329557210147</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.375462492894926</v>
+        <v>1.645659148912358</v>
       </c>
       <c r="G2">
-        <v>1.618661216422367</v>
+        <v>1.281294390249656</v>
       </c>
       <c r="H2">
-        <v>1.43705566309589</v>
+        <v>0.8441976228352104</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.3030830918251937</v>
+        <v>0.2083381738448153</v>
       </c>
       <c r="K2">
-        <v>0.3579458810648646</v>
+        <v>0.8258856662406515</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.2827484808362399</v>
+        <v>0.3541601572530553</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.3816829560378494</v>
+        <v>0.7136002962608927</v>
       </c>
       <c r="C3">
-        <v>0.02200878064165579</v>
+        <v>0.08471594842461627</v>
       </c>
       <c r="D3">
-        <v>0.1453318080491997</v>
+        <v>0.09040439120632016</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2.364444478439552</v>
+        <v>1.564184266443931</v>
       </c>
       <c r="G3">
-        <v>1.60792927278311</v>
+        <v>1.216677897361222</v>
       </c>
       <c r="H3">
-        <v>1.436782924629753</v>
+        <v>0.821612238259263</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.3007778073024667</v>
+        <v>0.1930593641044069</v>
       </c>
       <c r="K3">
-        <v>0.3286680263785513</v>
+        <v>0.71495180147177</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.2725404947246446</v>
+        <v>0.3095505403878889</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3643496199270828</v>
+        <v>0.6465270685856126</v>
       </c>
       <c r="C4">
-        <v>0.02000954457744797</v>
+        <v>0.07766934560542893</v>
       </c>
       <c r="D4">
-        <v>0.1441338740876859</v>
+        <v>0.08335009086907519</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2.358697697626155</v>
+        <v>1.516538223956573</v>
       </c>
       <c r="G4">
-        <v>1.602082765033174</v>
+        <v>1.178986596915905</v>
       </c>
       <c r="H4">
-        <v>1.437133324880705</v>
+        <v>0.8088617538662959</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2995021032281926</v>
+        <v>0.1839712445814072</v>
       </c>
       <c r="K4">
-        <v>0.310864166507173</v>
+        <v>0.6473187468298107</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.266433608451571</v>
+        <v>0.2824925115158052</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.3573406855751102</v>
+        <v>0.6193141021198016</v>
       </c>
       <c r="C5">
-        <v>0.0191946685217701</v>
+        <v>0.07480096145469872</v>
       </c>
       <c r="D5">
-        <v>0.1436635653076621</v>
+        <v>0.08049511573803159</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2.356611825610514</v>
+        <v>1.497684592934661</v>
       </c>
       <c r="G5">
-        <v>1.599886860087651</v>
+        <v>1.164094387992606</v>
       </c>
       <c r="H5">
-        <v>1.437406344754336</v>
+        <v>0.8039324362571278</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2990173876032145</v>
+        <v>0.1803364415555464</v>
       </c>
       <c r="K5">
-        <v>0.3036525882776147</v>
+        <v>0.6198589972295139</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.26398553142959</v>
+        <v>0.2715407591225869</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.3561801572173238</v>
+        <v>0.6148021002244093</v>
       </c>
       <c r="C6">
-        <v>0.01905934889388305</v>
+        <v>0.07432480353359949</v>
       </c>
       <c r="D6">
-        <v>0.1435865514917651</v>
+        <v>0.08002218817571816</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>2.356280926964246</v>
+        <v>1.494586926925251</v>
       </c>
       <c r="G6">
-        <v>1.599533495002802</v>
+        <v>1.161648887621823</v>
       </c>
       <c r="H6">
-        <v>1.437459545270514</v>
+        <v>0.8031296280946947</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2989390236632019</v>
+        <v>0.1797368919911335</v>
       </c>
       <c r="K6">
-        <v>0.3024577520677383</v>
+        <v>0.6153048930481191</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2635814803199921</v>
+        <v>0.2697264833689275</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.3642548738974938</v>
+        <v>0.646159604593322</v>
       </c>
       <c r="C7">
-        <v>0.01999855555636998</v>
+        <v>0.07763065131430835</v>
       </c>
       <c r="D7">
-        <v>0.1441274589403108</v>
+        <v>0.08331151021747019</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2.358668530452647</v>
+        <v>1.516281725592563</v>
       </c>
       <c r="G7">
-        <v>1.602052395082652</v>
+        <v>1.178783903503458</v>
       </c>
       <c r="H7">
-        <v>1.43713647962592</v>
+        <v>0.808794214121761</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2994954238818863</v>
+        <v>0.1839219527051767</v>
       </c>
       <c r="K7">
-        <v>0.3107667317169245</v>
+        <v>0.6469480300458201</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.2664004286225321</v>
+        <v>0.2823445217151033</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.4003651384044247</v>
+        <v>0.7856386836152467</v>
       </c>
       <c r="C8">
-        <v>0.02414154410301705</v>
+        <v>0.09225175058847412</v>
       </c>
       <c r="D8">
-        <v>0.1466709750080213</v>
+        <v>0.0980044978039416</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.371452072418577</v>
+        <v>1.617050347373123</v>
       </c>
       <c r="G8">
-        <v>1.61480650039708</v>
+        <v>1.258583399598805</v>
       </c>
       <c r="H8">
-        <v>1.436854142321636</v>
+        <v>0.8361694676721214</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.302259224828255</v>
+        <v>0.2030060727211378</v>
       </c>
       <c r="K8">
-        <v>0.3478150917064227</v>
+        <v>0.7875236427341861</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.2791954244537038</v>
+        <v>0.3387041640003474</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.472888029243336</v>
+        <v>1.064528105522584</v>
       </c>
       <c r="C9">
-        <v>0.03226034136577027</v>
+        <v>0.1211859232840311</v>
       </c>
       <c r="D9">
-        <v>0.1522177781520355</v>
+        <v>0.1275875442556895</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.404607922073282</v>
+        <v>1.835285254414146</v>
       </c>
       <c r="G9">
-        <v>1.645725431378168</v>
+        <v>1.43233568249201</v>
       </c>
       <c r="H9">
-        <v>1.440410484474569</v>
+        <v>0.899408821702167</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.3087884073307663</v>
+        <v>0.2430007336505042</v>
       </c>
       <c r="K9">
-        <v>0.4218350532956663</v>
+        <v>1.06797110892208</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.3055609333787928</v>
+        <v>0.4523030813718023</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.5272141274471664</v>
+        <v>1.274170855664863</v>
       </c>
       <c r="C10">
-        <v>0.03822254126578173</v>
+        <v>0.1427557166846327</v>
       </c>
       <c r="D10">
-        <v>0.1566311206896955</v>
+        <v>0.1499289751973265</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2.433913679890253</v>
+        <v>2.010827785126764</v>
       </c>
       <c r="G10">
-        <v>1.672065957359052</v>
+        <v>1.572819269308837</v>
       </c>
       <c r="H10">
-        <v>1.44553224980254</v>
+        <v>0.9527419616383952</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.3142633751057673</v>
+        <v>0.2743218023687035</v>
       </c>
       <c r="K10">
-        <v>0.4770533846963758</v>
+        <v>1.278397138393217</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.3257088288023553</v>
+        <v>0.5383080964589482</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.5521556343040288</v>
+        <v>1.370931780105394</v>
       </c>
       <c r="C11">
-        <v>0.04093452053051294</v>
+        <v>0.1526737302238104</v>
       </c>
       <c r="D11">
-        <v>0.1587117670350153</v>
+        <v>0.1602578993405217</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>2.448323435046689</v>
+        <v>2.094630428977325</v>
       </c>
       <c r="G11">
-        <v>1.684841084361551</v>
+        <v>1.64007674206718</v>
       </c>
       <c r="H11">
-        <v>1.448407930788278</v>
+        <v>0.9787521793661824</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.316901721726893</v>
+        <v>0.2890814738749157</v>
       </c>
       <c r="K11">
-        <v>0.5023559490537934</v>
+        <v>1.375436603486776</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.3350435942674466</v>
+        <v>0.5781496269718431</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.5616330757389107</v>
+        <v>1.407805573712096</v>
       </c>
       <c r="C12">
-        <v>0.04196144324676254</v>
+        <v>0.1564480913415451</v>
       </c>
       <c r="D12">
-        <v>0.1595100950444106</v>
+        <v>0.1641960372094786</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>2.453935308478293</v>
+        <v>2.12699063454339</v>
       </c>
       <c r="G12">
-        <v>1.689793008147888</v>
+        <v>1.666078713330648</v>
       </c>
       <c r="H12">
-        <v>1.449575393423544</v>
+        <v>0.9888764584458443</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.3179220584212317</v>
+        <v>0.2947523766481481</v>
       </c>
       <c r="K12">
-        <v>0.5119636889750723</v>
+        <v>1.412404813070566</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.3386027494915425</v>
+        <v>0.5933545682219687</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.5595904908025773</v>
+        <v>1.39985325703077</v>
       </c>
       <c r="C13">
-        <v>0.04174027919262357</v>
+        <v>0.1556343288731767</v>
       </c>
       <c r="D13">
-        <v>0.1593376978561025</v>
+        <v>0.1633466467726521</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>2.452719785848828</v>
+        <v>2.11999245993394</v>
       </c>
       <c r="G13">
-        <v>1.688721436652202</v>
+        <v>1.660454151881709</v>
       </c>
       <c r="H13">
-        <v>1.449320467542208</v>
+        <v>0.9866833989827342</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3177013653840248</v>
+        <v>0.2935272729545346</v>
       </c>
       <c r="K13">
-        <v>0.5098933274186948</v>
+        <v>1.404432651581033</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.3378351429670019</v>
+        <v>0.5900744244283089</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.5529346961805857</v>
+        <v>1.373960554355904</v>
       </c>
       <c r="C14">
-        <v>0.04101900702697492</v>
+        <v>0.1529838551800538</v>
       </c>
       <c r="D14">
-        <v>0.1587772372450758</v>
+        <v>0.1605813372813572</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>2.44878201578895</v>
+        <v>2.097279824411601</v>
       </c>
       <c r="G14">
-        <v>1.685246190600765</v>
+        <v>1.642204947405844</v>
       </c>
       <c r="H14">
-        <v>1.448502405149242</v>
+        <v>0.9795794618628122</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.3169852394883179</v>
+        <v>0.2895463348981195</v>
       </c>
       <c r="K14">
-        <v>0.5031458593419131</v>
+        <v>1.378473366167299</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.3353359218875482</v>
+        <v>0.5793980966983838</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.5488620740034094</v>
+        <v>1.358131813134634</v>
       </c>
       <c r="C15">
-        <v>0.04057720090705175</v>
+        <v>0.1513628959468178</v>
       </c>
       <c r="D15">
-        <v>0.1584352956503778</v>
+        <v>0.1588910879489447</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>2.446390235163065</v>
+        <v>2.083451019105965</v>
       </c>
       <c r="G15">
-        <v>1.683132390222625</v>
+        <v>1.631097797079121</v>
       </c>
       <c r="H15">
-        <v>1.448011542673498</v>
+        <v>0.9752646072171842</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.316549359499831</v>
+        <v>0.2871187949483129</v>
       </c>
       <c r="K15">
-        <v>0.4990162482361598</v>
+        <v>1.362602405233389</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.3338082368445043</v>
+        <v>0.5728743386779627</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.5255887184863752</v>
+        <v>1.267878024336255</v>
       </c>
       <c r="C16">
-        <v>0.03804530118583216</v>
+        <v>0.1421099641910217</v>
       </c>
       <c r="D16">
-        <v>0.156496608900909</v>
+        <v>0.1492575381266903</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>2.432993680700747</v>
+        <v>2.005435385913557</v>
       </c>
       <c r="G16">
-        <v>1.671247047013566</v>
+        <v>1.568495533050054</v>
       </c>
       <c r="H16">
-        <v>1.445355301528735</v>
+        <v>0.9510792662752579</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.3140939265966409</v>
+        <v>0.27336819920518</v>
       </c>
       <c r="K16">
-        <v>0.4754034794639495</v>
+        <v>1.272084547906275</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.3251021819405366</v>
+        <v>0.5357200179988482</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.5113696008417605</v>
+        <v>1.212889119123474</v>
       </c>
       <c r="C17">
-        <v>0.03649199127806924</v>
+        <v>0.1364630125920883</v>
       </c>
       <c r="D17">
-        <v>0.1553259372347497</v>
+        <v>0.143392140472713</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>2.425051634311671</v>
+        <v>1.958626245914942</v>
       </c>
       <c r="G17">
-        <v>1.66415899476354</v>
+        <v>1.530984283427188</v>
       </c>
       <c r="H17">
-        <v>1.443865584086069</v>
+        <v>0.9367061632651996</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.3126254453676296</v>
+        <v>0.2650692665408485</v>
       </c>
       <c r="K17">
-        <v>0.4609646760459611</v>
+        <v>1.216913794341536</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.3198046291675212</v>
+        <v>0.5131208137131722</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.5032126398278649</v>
+        <v>1.18139001773423</v>
       </c>
       <c r="C18">
-        <v>0.03559854492775116</v>
+        <v>0.133224771328301</v>
       </c>
       <c r="D18">
-        <v>0.1546594722599224</v>
+        <v>0.1400339223019813</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.420585076940043</v>
+        <v>1.932070634088902</v>
       </c>
       <c r="G18">
-        <v>1.660156729967866</v>
+        <v>1.509720871505493</v>
       </c>
       <c r="H18">
-        <v>1.443060106399372</v>
+        <v>0.9286022160738696</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.3117947210165397</v>
+        <v>0.2603435597127941</v>
       </c>
       <c r="K18">
-        <v>0.4526771373652139</v>
+        <v>1.185302767287936</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.3167735648499814</v>
+        <v>0.5001889239893629</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.5004545314816937</v>
+        <v>1.170746196182648</v>
       </c>
       <c r="C19">
-        <v>0.03529603555543304</v>
+        <v>0.132129932100213</v>
       </c>
       <c r="D19">
-        <v>0.1544350013205928</v>
+        <v>0.1388994464749231</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.419090205543071</v>
+        <v>1.923140831306625</v>
       </c>
       <c r="G19">
-        <v>1.658814435404793</v>
+        <v>1.502573557634349</v>
       </c>
       <c r="H19">
-        <v>1.442796207340109</v>
+        <v>0.9258856917238063</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.3115158404573179</v>
+        <v>0.2587514579974339</v>
       </c>
       <c r="K19">
-        <v>0.4498740922518891</v>
+        <v>1.174619787648766</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.3157500399436088</v>
+        <v>0.4958214172086386</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.5128810265007644</v>
+        <v>1.218729200626598</v>
       </c>
       <c r="C20">
-        <v>0.03665734627099937</v>
+        <v>0.137063108954834</v>
       </c>
       <c r="D20">
-        <v>0.1554498462239025</v>
+        <v>0.1440149071582368</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>2.425886573088164</v>
+        <v>1.963570690282921</v>
       </c>
       <c r="G20">
-        <v>1.66490580770315</v>
+        <v>1.534944766059397</v>
       </c>
       <c r="H20">
-        <v>1.444018850434986</v>
+        <v>0.9382191641045665</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.3127803283228445</v>
+        <v>0.2659477167324269</v>
       </c>
       <c r="K20">
-        <v>0.462499924267405</v>
+        <v>1.222773991966363</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.3203669127052464</v>
+        <v>0.515519545349207</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.5548887802515878</v>
+        <v>1.381559287062032</v>
       </c>
       <c r="C21">
-        <v>0.04123086342949023</v>
+        <v>0.153761829225715</v>
       </c>
       <c r="D21">
-        <v>0.1589415754883561</v>
+        <v>0.161392823430063</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>2.449934420809328</v>
+        <v>2.103933596472302</v>
       </c>
       <c r="G21">
-        <v>1.686263851438667</v>
+        <v>1.647550283790594</v>
       </c>
       <c r="H21">
-        <v>1.448740559111599</v>
+        <v>0.9816584066877567</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.3171950062064894</v>
+        <v>0.2907133458022031</v>
       </c>
       <c r="K21">
-        <v>0.5051270443765077</v>
+        <v>1.386091954765533</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.3360693452859067</v>
+        <v>0.5825306719861203</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.5825334041534802</v>
+        <v>1.489350621785661</v>
       </c>
       <c r="C22">
-        <v>0.04421965567239283</v>
+        <v>0.1647858002363876</v>
       </c>
       <c r="D22">
-        <v>0.1612844010359566</v>
+        <v>0.1729080694933742</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.466555837159746</v>
+        <v>2.199348442370734</v>
       </c>
       <c r="G22">
-        <v>1.700888691562028</v>
+        <v>1.724278596207682</v>
       </c>
       <c r="H22">
-        <v>1.45228406579858</v>
+        <v>1.011662458384365</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.3202041293649387</v>
+        <v>0.3073798745102039</v>
       </c>
       <c r="K22">
-        <v>0.5331390127536224</v>
+        <v>1.494137772577091</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.3464732934143981</v>
+        <v>0.6270208374305639</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.5677616147116282</v>
+        <v>1.431683371517977</v>
       </c>
       <c r="C23">
-        <v>0.04262450789985905</v>
+        <v>0.1588907816233274</v>
       </c>
       <c r="D23">
-        <v>0.1600284507457843</v>
+        <v>0.1667466785580132</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2.457601843697404</v>
+        <v>2.148066382925819</v>
       </c>
       <c r="G23">
-        <v>1.693022098688857</v>
+        <v>1.683022324112358</v>
       </c>
       <c r="H23">
-        <v>1.450350951162307</v>
+        <v>0.9954927782430048</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.318586767333386</v>
+        <v>0.2984377470141766</v>
       </c>
       <c r="K23">
-        <v>0.5181745845496266</v>
+        <v>1.436340533436919</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.3409075877874415</v>
+        <v>0.6032068537198683</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.5121976555058154</v>
+        <v>1.216088544745588</v>
       </c>
       <c r="C24">
-        <v>0.03658259061158731</v>
+        <v>0.1367917798947502</v>
       </c>
       <c r="D24">
-        <v>0.1553938065016069</v>
+        <v>0.1437333113371153</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2.425508787544899</v>
+        <v>1.961334203757232</v>
       </c>
       <c r="G24">
-        <v>1.664567946971147</v>
+        <v>1.53315329406135</v>
       </c>
       <c r="H24">
-        <v>1.443949399907325</v>
+        <v>0.9375346418495099</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.31271026361064</v>
+        <v>0.2655504284116148</v>
       </c>
       <c r="K24">
-        <v>0.4618057964170248</v>
+        <v>1.220124264578061</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.3201126589315777</v>
+        <v>0.51443489082029</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.4530854653875167</v>
+        <v>0.9883616441662184</v>
       </c>
       <c r="C25">
-        <v>0.03006451680515454</v>
+        <v>0.1133155081319472</v>
       </c>
       <c r="D25">
-        <v>0.150657655971898</v>
+        <v>0.1194885743681908</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.39477094039853</v>
+        <v>1.773779701426434</v>
       </c>
       <c r="G25">
-        <v>1.636726194244034</v>
+        <v>1.383256145165191</v>
       </c>
       <c r="H25">
-        <v>1.439008051941727</v>
+        <v>0.8811749927338042</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.306903152509868</v>
+        <v>0.2318695037780145</v>
       </c>
       <c r="K25">
-        <v>0.4016640447816542</v>
+        <v>0.9914467191159417</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.2982919034740235</v>
+        <v>0.42117637630448</v>
       </c>
       <c r="N25">
         <v>0</v>
